--- a/download/form.xlsx
+++ b/download/form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14265" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="14265"/>
   </bookViews>
   <sheets>
     <sheet name="物流地产收购前期调查表" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="132">
   <si>
     <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>請聯絡</t>
     </r>
     <r>
@@ -31,7 +26,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> webmaster@kb727.com </t>
+      <t xml:space="preserve"> Darin.Hubin@kb727.com </t>
     </r>
     <r>
       <rPr>
@@ -48,17 +43,11 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-Please contact webmaster@kb727.com to check your self-translation request form.</t>
+Please contact Darin.Hubin@kb727.com to check your self-translation request form.</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <rFont val="黑体"/>
-        <charset val="134"/>
-      </rPr>
       <t>物流地产收购前期调查表</t>
     </r>
     <r>
@@ -77,7 +66,7 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>说明：请发送已填写的表单文件给 webmaster@kb727.com ，另附：区位图、卫星图、交通图、红线图、建筑平面图、建筑参数、现场实景照片、土地证、产权证、消防合格证，以便评估反馈。</t>
+      <t>说明：请发送已填写的表单文件给 Darin.Hubin@kb727.com ，另附：区位图、卫星图、交通图、红线图、建筑平面图、建筑参数、现场实景照片、土地证、产权证、消防合格证，以便评估反馈。</t>
     </r>
   </si>
   <si>
@@ -339,7 +328,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> webmaster@kb727.com </t>
+      <t xml:space="preserve"> Laurel.Ye@kb727.com </t>
     </r>
     <r>
       <rPr>
@@ -356,17 +345,11 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-Please contact webmaster@kb727.com to check your self-translation request form.</t>
+Please contact Laurel.Ye@kb727.com to check your self-translation request form.</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <rFont val="黑体"/>
-        <charset val="134"/>
-      </rPr>
       <t>酒店资产收购前期调查表</t>
     </r>
     <r>
@@ -385,7 +368,7 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>说明：请发送已填写的表单文件给 webmaster@kb727.com ，另附：区位图、卫星图、交通图、红线图、建筑平面图、建筑参数、现场实景照片、土地证、产权证、消防合格证，以便评估反馈。</t>
+      <t>说明：请发送已填写的表单文件给 Laurel.Ye@kb727.com ，另附：区位图、卫星图、交通图、红线图、建筑平面图、建筑参数、现场实景照片、土地证、产权证、消防合格证，以便评估反馈。</t>
     </r>
   </si>
   <si>
@@ -535,10 +518,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -601,13 +584,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -616,8 +592,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,25 +609,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -661,6 +622,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -677,38 +653,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,17 +677,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -742,6 +703,28 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -760,19 +743,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,7 +767,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,13 +827,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,103 +869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,13 +887,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,12 +1026,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1071,24 +1067,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,15 +1105,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1125,31 +1123,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1158,133 +1141,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1712,8 +1695,8 @@
   <sheetPr/>
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1731,7 +1714,7 @@
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="1:10">
       <c r="A1" s="4"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6"/>
@@ -2395,8 +2378,8 @@
   <sheetPr/>
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
